--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3540622.883859097</v>
+        <v>3540647.963118686</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12288795.66754614</v>
+        <v>12292201.09895406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2890.21511375469</v>
+        <v>3673.189343780453</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7768625.822514515</v>
+        <v>7767762.293107483</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="G2" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.322253281504577</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.322253281504576</v>
       </c>
       <c r="F3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.056421089299432</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.322253281504577</v>
       </c>
       <c r="C4" t="n">
-        <v>6.05642108929943</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="E4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.994489848467</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.994489848467</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5.450300916818291</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>13.994489848467</v>
-      </c>
-      <c r="U8" t="n">
-        <v>12.32634665852973</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12.32634665852973</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>12.32634665852973</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>12.32634665852973</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D11" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F11" t="n">
         <v>375.2658433894975</v>
@@ -1387,7 +1387,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W11" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X11" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
@@ -1548,7 +1548,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.5262913945307</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221468</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
         <v>254.5831063612652</v>
@@ -1596,7 +1596,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D14" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F14" t="n">
         <v>375.2658433894975</v>
@@ -1624,7 +1624,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H14" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295265</v>
       </c>
       <c r="T14" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1675,7 +1675,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
         <v>113.8108456707173</v>
@@ -1785,7 +1785,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T16" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1833,7 +1833,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
@@ -1909,7 +1909,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1943,7 +1943,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2022,7 +2022,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2061,10 +2061,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2250,7 +2250,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707177</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
@@ -2259,7 +2259,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2298,10 +2298,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2371,10 +2371,10 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2496,7 +2496,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2535,10 +2535,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368232</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645686</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659973</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943552</v>
@@ -2733,7 +2733,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453046</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2961,7 +2961,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707183</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
@@ -2970,7 +2970,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139452967</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295164</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545717</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645699</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452998</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295164</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.810845670721</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139452998</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295265</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3681,7 +3681,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3717,7 +3717,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3757,7 +3757,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3918,7 +3918,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424843</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247487</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545699</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4073,10 +4073,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4146,7 +4146,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707162</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
@@ -4155,7 +4155,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.38658590694733</v>
+        <v>10.30609113719429</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>10.30609113719429</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38658590694733</v>
+        <v>10.30609113719429</v>
       </c>
       <c r="E2" t="n">
-        <v>21.38658590694733</v>
+        <v>10.30609113719429</v>
       </c>
       <c r="F2" t="n">
-        <v>14.44108515774386</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="G2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>5.250693700283718</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357368943631237</v>
+        <v>10.10881217063968</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>14.77064302603177</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="P2" t="n">
-        <v>27.50418296684575</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.50418296684575</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>10.30609113719429</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="F3" t="n">
-        <v>13.6131814684388</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="G3" t="n">
-        <v>13.6131814684388</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="H3" t="n">
-        <v>6.667680719235332</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.054406085319842</v>
       </c>
       <c r="M3" t="n">
-        <v>7.357368943631237</v>
+        <v>9.912524555675805</v>
       </c>
       <c r="N3" t="n">
-        <v>14.16465422792556</v>
+        <v>14.77064302603177</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.50418296684575</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>9.715245589121199</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.50418296684575</v>
+        <v>10.30609113719429</v>
       </c>
       <c r="C4" t="n">
-        <v>21.38658590694733</v>
+        <v>5.349333183561021</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.3925752299277546</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.250693700283718</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>10.10881217063968</v>
       </c>
       <c r="M4" t="n">
-        <v>7.357368943631237</v>
+        <v>10.10881217063968</v>
       </c>
       <c r="N4" t="n">
-        <v>14.16465422792556</v>
+        <v>14.77064302603177</v>
       </c>
       <c r="O4" t="n">
-        <v>20.97193951221988</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>19.62876149638773</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="X4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.67200354275447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
         <v>14.44108515774386</v>
@@ -4570,22 +4570,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4594,25 +4594,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W5" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N6" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4670,28 +4670,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D7" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O7" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4749,28 +4749,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="T7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="U7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="W7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="X7" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13.6131814684388</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="T7" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="U7" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.6131814684388</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="C8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="D8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="E8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="F8" t="n">
-        <v>15.25540751966221</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="G8" t="n">
         <v>1.11955918787736</v>
@@ -4804,52 +4804,52 @@
         <v>1.11955918787736</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11955918787736</v>
+        <v>14.41432454392102</v>
       </c>
       <c r="K8" t="n">
-        <v>1.11955918787736</v>
+        <v>28.26886949390335</v>
       </c>
       <c r="L8" t="n">
-        <v>14.97410413785969</v>
+        <v>28.26886949390335</v>
       </c>
       <c r="M8" t="n">
-        <v>14.97410413785969</v>
+        <v>28.26886949390335</v>
       </c>
       <c r="N8" t="n">
-        <v>28.82864908784203</v>
+        <v>42.12341444388569</v>
       </c>
       <c r="O8" t="n">
-        <v>28.82864908784203</v>
+        <v>42.12341444388569</v>
       </c>
       <c r="P8" t="n">
-        <v>42.68319403782436</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="Q8" t="n">
-        <v>55.97795939386801</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="R8" t="n">
-        <v>55.97795939386801</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="S8" t="n">
-        <v>55.97795939386801</v>
+        <v>36.33675660065055</v>
       </c>
       <c r="T8" t="n">
-        <v>41.84211106208316</v>
+        <v>36.33675660065055</v>
       </c>
       <c r="U8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="V8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="W8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="X8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.39125585144707</v>
+        <v>22.20090826886569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="C9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="D9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="E9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="F9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="G9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11955918787736</v>
+        <v>15.25540751966222</v>
       </c>
       <c r="I9" t="n">
         <v>1.11955918787736</v>
@@ -4892,19 +4892,19 @@
         <v>14.41432454392101</v>
       </c>
       <c r="M9" t="n">
-        <v>28.26886949390334</v>
+        <v>28.26886949390335</v>
       </c>
       <c r="N9" t="n">
         <v>42.12341444388568</v>
       </c>
       <c r="O9" t="n">
-        <v>55.97795939386801</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="P9" t="n">
-        <v>55.97795939386801</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.97795939386801</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="R9" t="n">
         <v>41.84211106208316</v>
@@ -4916,19 +4916,19 @@
         <v>41.84211106208316</v>
       </c>
       <c r="U9" t="n">
-        <v>27.70626273029831</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="V9" t="n">
-        <v>27.70626273029831</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="W9" t="n">
-        <v>13.57041439851346</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="X9" t="n">
-        <v>1.11955918787736</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.11955918787736</v>
+        <v>29.39125585144707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.25540751966221</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="C10" t="n">
-        <v>15.25540751966221</v>
+        <v>41.84211106208316</v>
       </c>
       <c r="D10" t="n">
-        <v>15.25540751966221</v>
+        <v>27.70626273029831</v>
       </c>
       <c r="E10" t="n">
-        <v>15.25540751966221</v>
+        <v>13.57041439851345</v>
       </c>
       <c r="F10" t="n">
-        <v>15.25540751966221</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="G10" t="n">
-        <v>15.25540751966221</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="H10" t="n">
-        <v>15.25540751966221</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="I10" t="n">
-        <v>15.25540751966221</v>
+        <v>1.11955918787736</v>
       </c>
       <c r="J10" t="n">
         <v>1.11955918787736</v>
       </c>
       <c r="K10" t="n">
-        <v>14.41432454392101</v>
+        <v>14.9741041378597</v>
       </c>
       <c r="L10" t="n">
-        <v>28.26886949390335</v>
+        <v>14.9741041378597</v>
       </c>
       <c r="M10" t="n">
-        <v>42.12341444388568</v>
+        <v>14.9741041378597</v>
       </c>
       <c r="N10" t="n">
-        <v>55.97795939386801</v>
+        <v>28.82864908784203</v>
       </c>
       <c r="O10" t="n">
-        <v>55.97795939386801</v>
+        <v>42.68319403782436</v>
       </c>
       <c r="P10" t="n">
-        <v>55.97795939386801</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.84211106208316</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="R10" t="n">
-        <v>41.84211106208316</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="S10" t="n">
-        <v>41.84211106208316</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="T10" t="n">
-        <v>41.84211106208316</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="U10" t="n">
-        <v>27.70626273029831</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="V10" t="n">
-        <v>15.25540751966221</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="W10" t="n">
-        <v>15.25540751966221</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="X10" t="n">
-        <v>15.25540751966221</v>
+        <v>55.97795939386802</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.25540751966221</v>
+        <v>55.97795939386802</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H11" t="n">
         <v>84.98040897511622</v>
@@ -5041,19 +5041,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M11" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233288</v>
@@ -5129,7 +5129,7 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N12" t="n">
         <v>1662.137679823382</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897937</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I13" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M13" t="n">
         <v>1285.552079040893</v>
@@ -5214,19 +5214,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T13" t="n">
         <v>2144.901839127669</v>
@@ -5235,16 +5235,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X13" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E14" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H14" t="n">
         <v>84.98040897511622</v>
@@ -5278,10 +5278,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5290,7 +5290,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
@@ -5299,31 +5299,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W14" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="15">
@@ -5366,19 +5366,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.28233189698</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N15" t="n">
-        <v>1662.137679823382</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F16" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H16" t="n">
         <v>140.0574709897931</v>
@@ -5436,13 +5436,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M16" t="n">
         <v>1285.552079040893</v>
@@ -5454,7 +5454,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.521427597205</v>
@@ -5503,7 +5503,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5518,7 +5518,7 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5533,7 +5533,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5588,7 +5588,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5597,10 +5597,10 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
         <v>1522.315654538067</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749443</v>
@@ -5673,19 +5673,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042774</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902778</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313935</v>
@@ -5694,13 +5694,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5734,13 +5734,13 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5752,7 +5752,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
         <v>766.6831886951454</v>
@@ -5761,13 +5761,13 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
@@ -5791,7 +5791,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
         <v>2834.342818501802</v>
@@ -5840,10 +5840,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
         <v>2555.644190323788</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749443</v>
@@ -5925,34 +5925,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5989,7 +5989,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K23" t="n">
         <v>766.6831886951454</v>
@@ -5998,13 +5998,13 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
@@ -6022,19 +6022,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6077,10 +6077,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
         <v>2555.644190323788</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749443</v>
@@ -6153,7 +6153,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6162,19 +6162,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6214,16 +6214,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076836</v>
@@ -6250,25 +6250,25 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6299,10 +6299,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
@@ -6314,10 +6314,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
         <v>2555.644190323788</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502104</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897934</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6399,37 +6399,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607686</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951472</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746741</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6536,10 +6536,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6551,10 +6551,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
         <v>2555.644190323788</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039811</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
@@ -6627,19 +6627,19 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6651,22 +6651,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6685,67 +6685,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076851</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6794,7 +6794,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902747</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.55207904089</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.04923335254</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6955,34 +6955,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7025,10 +7025,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502129</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477748</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609078</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039835</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7189,37 +7189,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
         <v>4188.091007924546</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7268,7 +7268,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7329,28 +7329,28 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7362,7 +7362,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
@@ -7399,52 +7399,52 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
         <v>3496.71823738206</v>
@@ -7484,10 +7484,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7548,16 +7548,16 @@
         <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7566,16 +7566,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7584,31 +7584,31 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073043</v>
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
         <v>766.683188695145</v>
@@ -7666,34 +7666,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7733,10 +7733,10 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
         <v>2100.171002464469</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
         <v>386.7245456315385</v>
@@ -7800,10 +7800,10 @@
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
@@ -7836,22 +7836,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.97188700630549</v>
+        <v>82.70310323439529</v>
       </c>
       <c r="K2" t="n">
-        <v>73.10232184828385</v>
+        <v>72.69948464919551</v>
       </c>
       <c r="L2" t="n">
-        <v>60.29143321677248</v>
+        <v>57.82282268238712</v>
       </c>
       <c r="M2" t="n">
-        <v>27.44557985770251</v>
+        <v>31.79669631625516</v>
       </c>
       <c r="N2" t="n">
-        <v>29.8274912411421</v>
+        <v>27.37311381249526</v>
       </c>
       <c r="O2" t="n">
-        <v>42.28074333271368</v>
+        <v>39.77830671354099</v>
       </c>
       <c r="P2" t="n">
-        <v>71.94263183612992</v>
+        <v>64.61118684105213</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.52163638907834</v>
+        <v>97.17965051536747</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>68.42541370580973</v>
+        <v>68.26532793261319</v>
       </c>
       <c r="K3" t="n">
-        <v>38.00566326385946</v>
+        <v>37.73205117937977</v>
       </c>
       <c r="L3" t="n">
-        <v>4.312858837149918</v>
+        <v>8.653873679690117</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.094181567561066</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.78950297314441</v>
+        <v>15.58989683992696</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.06115545119579</v>
+        <v>60.84486389819862</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>68.79271293973748</v>
+        <v>73.5348615861387</v>
       </c>
       <c r="L4" t="n">
-        <v>64.69915733558906</v>
+        <v>62.51910537840214</v>
       </c>
       <c r="M4" t="n">
-        <v>57.67516881343853</v>
+        <v>57.45249162168132</v>
       </c>
       <c r="N4" t="n">
-        <v>55.24293309661428</v>
+        <v>52.85842498500923</v>
       </c>
       <c r="O4" t="n">
-        <v>72.06896625549113</v>
+        <v>69.89932303324339</v>
       </c>
       <c r="P4" t="n">
-        <v>81.63654793377547</v>
+        <v>74.86651352521969</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,13 +8218,13 @@
         <v>81.3904371773047</v>
       </c>
       <c r="K5" t="n">
-        <v>70.73213850318879</v>
+        <v>77.60818424490023</v>
       </c>
       <c r="L5" t="n">
         <v>50.47496544952261</v>
       </c>
       <c r="M5" t="n">
-        <v>31.04983953733307</v>
+        <v>30.77201950736493</v>
       </c>
       <c r="N5" t="n">
         <v>19.9045385482865</v>
@@ -8236,7 +8236,7 @@
         <v>69.26318781224035</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.1077112270649</v>
+        <v>95.50948551532161</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>74.08173873341609</v>
+        <v>67.48351302167279</v>
       </c>
       <c r="K6" t="n">
         <v>36.39580497093574</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.00971683006097</v>
+        <v>20.60794254180426</v>
       </c>
       <c r="Q6" t="n">
         <v>59.7885554088987</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>67.82165278165036</v>
+        <v>74.69769852336179</v>
       </c>
       <c r="L7" t="n">
-        <v>63.45653465754863</v>
+        <v>63.17871462758048</v>
       </c>
       <c r="M7" t="n">
-        <v>62.96322313974392</v>
+        <v>56.36499742800063</v>
       </c>
       <c r="N7" t="n">
-        <v>53.96391465834506</v>
+        <v>47.08786891663362</v>
       </c>
       <c r="O7" t="n">
         <v>70.88758571261646</v>
       </c>
       <c r="P7" t="n">
-        <v>74.02744707780755</v>
+        <v>80.90349281951899</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>70.01001912781906</v>
+        <v>83.43907504301485</v>
       </c>
       <c r="K8" t="n">
-        <v>53.67584191605488</v>
+        <v>67.67033176452213</v>
       </c>
       <c r="L8" t="n">
-        <v>43.3096111607363</v>
+        <v>29.31512131226961</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6293901274469249</v>
+        <v>0.629390127447266</v>
       </c>
       <c r="N8" t="n">
-        <v>9.973651662311488</v>
+        <v>9.973651662311852</v>
       </c>
       <c r="O8" t="n">
-        <v>9.673197374370716</v>
+        <v>9.673197374371057</v>
       </c>
       <c r="P8" t="n">
-        <v>57.09983582728797</v>
+        <v>57.09983582728825</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.45871557574596</v>
+        <v>81.02965966055058</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>60.70541399506779</v>
+        <v>60.70541399506789</v>
       </c>
       <c r="K9" t="n">
-        <v>24.81095413473888</v>
+        <v>24.81095413473906</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3100336482064279</v>
+        <v>0.3100336482066268</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.63068000523536</v>
+        <v>50.6306800052355</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.26277247049511</v>
+        <v>74.82820640376661</v>
       </c>
       <c r="L10" t="n">
-        <v>61.63282625681263</v>
+        <v>47.63833640834578</v>
       </c>
       <c r="M10" t="n">
-        <v>60.93124123961569</v>
+        <v>46.93675139114883</v>
       </c>
       <c r="N10" t="n">
-        <v>51.87829534583895</v>
+        <v>51.8782953458391</v>
       </c>
       <c r="O10" t="n">
-        <v>55.51009768238362</v>
+        <v>69.50458753085076</v>
       </c>
       <c r="P10" t="n">
-        <v>66.75299453043885</v>
+        <v>80.18205044563456</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.008970684779342e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.968855367614504</v>
       </c>
       <c r="G2" t="n">
-        <v>7.271163503253145</v>
+        <v>9.236852005118108</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.129762949858559e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.472688720445149e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>686315.5925465975</v>
+        <v>685452.0631395623</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>667812.4072616484</v>
+        <v>667812.4072616486</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667812.4072616484</v>
+        <v>667812.4072616486</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667812.4072616484</v>
+        <v>667812.4072616486</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667812.4072616482</v>
+        <v>667812.4072616484</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>667812.4072616482</v>
+        <v>667812.4072616484</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779439.8359869535</v>
+        <v>779142.305779543</v>
       </c>
       <c r="C2" t="n">
         <v>779441.2450119589</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="H2" t="n">
         <v>779989.6813710693</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="J2" t="n">
         <v>779989.6813710692</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.681371069</v>
       </c>
       <c r="O2" t="n">
+        <v>779989.6813710686</v>
+      </c>
+      <c r="P2" t="n">
         <v>779989.681371069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>779989.6813710689</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279282.9842492887</v>
+        <v>279382.2692420491</v>
       </c>
       <c r="C3" t="n">
-        <v>4220.595355754424</v>
+        <v>4139.340931544839</v>
       </c>
       <c r="D3" t="n">
-        <v>30776.03416585466</v>
+        <v>30776.03416585422</v>
       </c>
       <c r="E3" t="n">
         <v>1103704.48410392</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.194126409449382e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27087.23799381549</v>
+        <v>26572.09880001126</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>506.7203682523266</v>
       </c>
       <c r="L3" t="n">
-        <v>1801.614137422912</v>
+        <v>1801.614137422861</v>
       </c>
       <c r="M3" t="n">
         <v>261230.7401297383</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.16188177111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360801.0798802874</v>
+        <v>360613.8261242247</v>
       </c>
       <c r="C4" t="n">
-        <v>359587.2406393109</v>
+        <v>359587.240639311</v>
       </c>
       <c r="D4" t="n">
-        <v>350649.7918900143</v>
+        <v>350649.7918900144</v>
       </c>
       <c r="E4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104693</v>
       </c>
       <c r="F4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104693</v>
       </c>
       <c r="G4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104697</v>
       </c>
       <c r="H4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104699</v>
       </c>
       <c r="I4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104698</v>
       </c>
       <c r="J4" t="n">
-        <v>42789.59501104699</v>
+        <v>42789.59501104697</v>
       </c>
       <c r="K4" t="n">
-        <v>42789.59501104701</v>
+        <v>42789.59501104703</v>
       </c>
       <c r="L4" t="n">
-        <v>42789.59501104704</v>
+        <v>42789.595011047</v>
       </c>
       <c r="M4" t="n">
-        <v>42789.5950110471</v>
+        <v>42789.59501104697</v>
       </c>
       <c r="N4" t="n">
         <v>42789.59501104696</v>
       </c>
       <c r="O4" t="n">
-        <v>42789.59501104691</v>
+        <v>42789.59501104699</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104693</v>
+        <v>42789.59501104699</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40311.80450816296</v>
+        <v>40209.27122305533</v>
       </c>
       <c r="C5" t="n">
         <v>40412.84643290664</v>
@@ -26478,10 +26478,10 @@
         <v>41572.76501721094</v>
       </c>
       <c r="E5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215528</v>
@@ -26496,19 +26496,19 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215525</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99029.49773384295</v>
+        <v>98934.70925444667</v>
       </c>
       <c r="C6" t="n">
-        <v>375206.1300482209</v>
+        <v>375300.3737546198</v>
       </c>
       <c r="D6" t="n">
-        <v>356991.0902979898</v>
+        <v>356991.0902979895</v>
       </c>
       <c r="E6" t="n">
-        <v>-461610.8318460532</v>
+        <v>-461610.8318460533</v>
       </c>
       <c r="F6" t="n">
+        <v>642093.652257867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>642093.652257866</v>
+      </c>
+      <c r="H6" t="n">
+        <v>642093.6522578672</v>
+      </c>
+      <c r="I6" t="n">
+        <v>642093.6522578665</v>
+      </c>
+      <c r="J6" t="n">
+        <v>615521.5534578557</v>
+      </c>
+      <c r="K6" t="n">
+        <v>641586.9318896146</v>
+      </c>
+      <c r="L6" t="n">
+        <v>640292.0381204434</v>
+      </c>
+      <c r="M6" t="n">
+        <v>380862.9121281288</v>
+      </c>
+      <c r="N6" t="n">
         <v>642093.6522578668</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O6" t="n">
+        <v>616805.4903760952</v>
+      </c>
+      <c r="P6" t="n">
         <v>642093.6522578668</v>
-      </c>
-      <c r="H6" t="n">
-        <v>642093.652257867</v>
-      </c>
-      <c r="I6" t="n">
-        <v>642093.6522578669</v>
-      </c>
-      <c r="J6" t="n">
-        <v>615006.4142640515</v>
-      </c>
-      <c r="K6" t="n">
-        <v>642093.652257867</v>
-      </c>
-      <c r="L6" t="n">
-        <v>640292.0381204435</v>
-      </c>
-      <c r="M6" t="n">
-        <v>380862.9121281285</v>
-      </c>
-      <c r="N6" t="n">
-        <v>642093.6522578663</v>
-      </c>
-      <c r="O6" t="n">
-        <v>616805.4903760958</v>
-      </c>
-      <c r="P6" t="n">
-        <v>642093.6522578667</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="F2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221409</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221409</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.437657204904</v>
+        <v>288.2254150601026</v>
       </c>
       <c r="C3" t="n">
         <v>292.0726078812197</v>
       </c>
       <c r="D3" t="n">
-        <v>325.4266070836769</v>
+        <v>325.4266070836763</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="C4" t="n">
         <v>6.876045741711437</v>
@@ -26822,16 +26822,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.49213974509621e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.437657204904</v>
+        <v>288.2254150601026</v>
       </c>
       <c r="C3" t="n">
-        <v>4.634950676315695</v>
+        <v>3.847192821117062</v>
       </c>
       <c r="D3" t="n">
-        <v>33.3539992024572</v>
+        <v>33.35399920245669</v>
       </c>
       <c r="E3" t="n">
-        <v>952.733263536446</v>
+        <v>952.7332635364464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.968855367614504</v>
       </c>
       <c r="D4" t="n">
-        <v>7.118444106755566</v>
+        <v>7.118444106755568</v>
       </c>
       <c r="E4" t="n">
         <v>1048.260622340486</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>4.907190374096706</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.968855367614958</v>
       </c>
       <c r="L4" t="n">
-        <v>7.118444106755339</v>
+        <v>7.118444106755341</v>
       </c>
       <c r="M4" t="n">
         <v>1048.260622340485</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.968855367614504</v>
       </c>
       <c r="L4" t="n">
-        <v>7.118444106755566</v>
+        <v>7.118444106755568</v>
       </c>
       <c r="M4" t="n">
         <v>1048.260622340486</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>327.6407482188839</v>
+        <v>327.6083155550264</v>
       </c>
       <c r="I2" t="n">
-        <v>159.0513401929475</v>
+        <v>165.8052953428497</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.28316524005399</v>
+        <v>72.1770442353174</v>
       </c>
       <c r="S2" t="n">
-        <v>182.6884691297358</v>
+        <v>182.6163041764681</v>
       </c>
       <c r="T2" t="n">
-        <v>218.0375245614601</v>
+        <v>218.0236616066415</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2532106462229</v>
+        <v>251.2529572969629</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.915685374549</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>153.3228271738964</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7252550326189</v>
+        <v>136.7235606100625</v>
       </c>
       <c r="H3" t="n">
-        <v>99.38828791775485</v>
+        <v>106.2479691047762</v>
       </c>
       <c r="I3" t="n">
-        <v>62.05355507288454</v>
+        <v>63.14444711673508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.89530279402016</v>
+        <v>56.75895532957626</v>
       </c>
       <c r="S3" t="n">
-        <v>160.1992231956985</v>
+        <v>155.260559665783</v>
       </c>
       <c r="T3" t="n">
-        <v>197.6726984403753</v>
+        <v>197.6658687284043</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9007069408043</v>
+        <v>225.9005954656361</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>175.5097269004327</v>
       </c>
       <c r="C4" t="n">
-        <v>161.1904000093284</v>
+        <v>162.3396307245309</v>
       </c>
       <c r="D4" t="n">
-        <v>141.7394272765009</v>
+        <v>143.7082826441154</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4726491569417</v>
+        <v>167.4712286099897</v>
       </c>
       <c r="H4" t="n">
-        <v>157.618745806679</v>
+        <v>157.6061158528694</v>
       </c>
       <c r="I4" t="n">
-        <v>139.8628721398186</v>
+        <v>139.8201524187531</v>
       </c>
       <c r="J4" t="n">
-        <v>56.71323486941805</v>
+        <v>56.61280219991183</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.75895701375389</v>
+        <v>37.73281520352197</v>
       </c>
       <c r="R4" t="n">
-        <v>153.987380679867</v>
+        <v>153.9235077232799</v>
       </c>
       <c r="S4" t="n">
-        <v>214.9835162523526</v>
+        <v>214.9587599931982</v>
       </c>
       <c r="T4" t="n">
-        <v>225.7309058399814</v>
+        <v>225.7248362302774</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2907568000445</v>
+        <v>286.2906793156653</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27666,7 +27666,7 @@
         <v>76.11271209263244</v>
       </c>
       <c r="S5" t="n">
-        <v>175.3878246401387</v>
+        <v>182.2638703818502</v>
       </c>
       <c r="T5" t="n">
         <v>217.9559587460407</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
         <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8392397743585</v>
+        <v>136.7152855160699</v>
       </c>
       <c r="H6" t="n">
         <v>106.1680491180583</v>
       </c>
       <c r="I6" t="n">
-        <v>61.71030636713853</v>
+        <v>67.76672745643796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>54.27631824898314</v>
+        <v>61.15236399069457</v>
       </c>
       <c r="S6" t="n">
         <v>160.0140437983948</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5590519289129</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>139.6115210441259</v>
       </c>
       <c r="J7" t="n">
-        <v>49.24627090787536</v>
+        <v>56.12231664958679</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>35.18303371991878</v>
       </c>
       <c r="R7" t="n">
-        <v>146.7355240193841</v>
+        <v>153.6115697610955</v>
       </c>
       <c r="S7" t="n">
         <v>214.8378572286395</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>392.8815558932444</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>326.076710699503</v>
+        <v>326.0767106995031</v>
       </c>
       <c r="I8" t="n">
-        <v>160.039671401186</v>
+        <v>160.0396714011861</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.68990544981293</v>
+        <v>53.69541560134605</v>
       </c>
       <c r="S8" t="n">
-        <v>179.2083758820472</v>
+        <v>173.758074965229</v>
       </c>
       <c r="T8" t="n">
-        <v>203.374505554825</v>
+        <v>217.368995403292</v>
       </c>
       <c r="U8" t="n">
-        <v>238.9146464359733</v>
+        <v>237.246503246036</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>152.5386938014003</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>105.4751669836827</v>
       </c>
       <c r="I9" t="n">
-        <v>65.29664355323712</v>
+        <v>51.30215370477016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>42.70354194685036</v>
+        <v>42.70354194685043</v>
       </c>
       <c r="S9" t="n">
         <v>158.6814571321457</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3433414126527</v>
+        <v>197.3433414126528</v>
       </c>
       <c r="U9" t="n">
-        <v>211.9008412975431</v>
+        <v>225.8953311460101</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>237.7004933124526</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>193.4466385449477</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>193.3563491187746</v>
       </c>
     </row>
     <row r="10">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.2523312501608</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>134.6209831697454</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4394727981022</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>133.0947013644015</v>
       </c>
       <c r="G10" t="n">
         <v>167.4041444932259</v>
@@ -28031,10 +28031,10 @@
         <v>157.0096770692783</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8027500709828</v>
+        <v>137.8027500709829</v>
       </c>
       <c r="J10" t="n">
-        <v>37.87546529624258</v>
+        <v>51.86995514470965</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.02813573359218</v>
+        <v>37.02262558205926</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9071618913356</v>
+        <v>150.9071618913357</v>
       </c>
       <c r="S10" t="n">
         <v>213.7896667946869</v>
@@ -28067,10 +28067,10 @@
         <v>225.4382040950138</v>
       </c>
       <c r="U10" t="n">
-        <v>272.2925303335566</v>
+        <v>286.2870201820236</v>
       </c>
       <c r="V10" t="n">
-        <v>239.8112966652983</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I11" t="n">
         <v>12.38037836605497</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605497</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221334</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221285</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221361</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221366</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221372</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235220963</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221424</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.155528270170467</v>
+        <v>1.15869513592001</v>
       </c>
       <c r="H2" t="n">
-        <v>11.8340538968833</v>
+        <v>11.8664865607408</v>
       </c>
       <c r="I2" t="n">
-        <v>44.54850363574699</v>
+        <v>44.67059422755621</v>
       </c>
       <c r="J2" t="n">
-        <v>98.07401752038079</v>
+        <v>98.342801292291</v>
       </c>
       <c r="K2" t="n">
-        <v>146.9875291966967</v>
+        <v>147.390366395785</v>
       </c>
       <c r="L2" t="n">
-        <v>182.3510274949262</v>
+        <v>182.8507826616971</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9006533695702</v>
+        <v>203.4567272851145</v>
       </c>
       <c r="N2" t="n">
-        <v>206.1837980671921</v>
+        <v>206.7488698400473</v>
       </c>
       <c r="O2" t="n">
-        <v>194.6935138306845</v>
+        <v>195.2270950822427</v>
       </c>
       <c r="P2" t="n">
-        <v>166.1664096608511</v>
+        <v>166.6218089142174</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.7840534853711</v>
+        <v>125.126039359082</v>
       </c>
       <c r="R2" t="n">
-        <v>72.58595270109569</v>
+        <v>72.78488333173536</v>
       </c>
       <c r="S2" t="n">
-        <v>26.33160045650955</v>
+        <v>26.40376540977724</v>
       </c>
       <c r="T2" t="n">
-        <v>5.058325002671224</v>
+        <v>5.072187957489844</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09244226161363737</v>
+        <v>0.09269561087360075</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6182621305916803</v>
+        <v>0.6199565531481452</v>
       </c>
       <c r="H3" t="n">
-        <v>5.971110577030176</v>
+        <v>5.987475131720245</v>
       </c>
       <c r="I3" t="n">
-        <v>21.2866566892311</v>
+        <v>21.34499536058307</v>
       </c>
       <c r="J3" t="n">
-        <v>58.41221296085696</v>
+        <v>58.5722987340535</v>
       </c>
       <c r="K3" t="n">
-        <v>99.83577571049953</v>
+        <v>100.1093877949792</v>
       </c>
       <c r="L3" t="n">
-        <v>134.2415209427243</v>
+        <v>134.6094261561357</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>147.0412242961152</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250447</v>
+        <v>136.2489024574302</v>
       </c>
       <c r="O3" t="n">
-        <v>147.1002885886267</v>
+        <v>147.5034348185414</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0609501828973</v>
+        <v>118.3845105744033</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.92061863482573</v>
+        <v>79.13691018782289</v>
       </c>
       <c r="R3" t="n">
-        <v>38.38648561691154</v>
+        <v>38.49168844896995</v>
       </c>
       <c r="S3" t="n">
-        <v>11.48394790813932</v>
+        <v>11.51542106395786</v>
       </c>
       <c r="T3" t="n">
-        <v>2.492030254446289</v>
+        <v>2.498859966417303</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0406751401705053</v>
+        <v>0.04078661533869378</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5183302015170399</v>
+        <v>0.5197507484690373</v>
       </c>
       <c r="H4" t="n">
-        <v>4.608426700760595</v>
+        <v>4.621056654570173</v>
       </c>
       <c r="I4" t="n">
-        <v>15.58760278743971</v>
+        <v>15.63032250850524</v>
       </c>
       <c r="J4" t="n">
-        <v>36.64594524725472</v>
+        <v>36.74637791676094</v>
       </c>
       <c r="K4" t="n">
-        <v>60.2205452307979</v>
+        <v>60.3855869584936</v>
       </c>
       <c r="L4" t="n">
-        <v>77.06156468736066</v>
+        <v>77.27276127693308</v>
       </c>
       <c r="M4" t="n">
-        <v>81.25061513416652</v>
+        <v>81.47329232592374</v>
       </c>
       <c r="N4" t="n">
-        <v>79.31865711033035</v>
+        <v>79.53603953617556</v>
       </c>
       <c r="O4" t="n">
-        <v>73.26361793806309</v>
+        <v>73.46440579269633</v>
       </c>
       <c r="P4" t="n">
-        <v>62.68968182711542</v>
+        <v>62.86149052392792</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.4030862379405</v>
+        <v>43.52203767407549</v>
       </c>
       <c r="R4" t="n">
-        <v>23.30601069730253</v>
+        <v>23.36988365388962</v>
       </c>
       <c r="S4" t="n">
-        <v>9.033081784619684</v>
+        <v>9.057838043774039</v>
       </c>
       <c r="T4" t="n">
-        <v>2.214683588300079</v>
+        <v>2.220753198004068</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02827255644638403</v>
+        <v>0.02835004082558389</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.308247666668047</v>
+        <v>1.308247666668045</v>
       </c>
       <c r="H8" t="n">
-        <v>13.39809141626414</v>
+        <v>13.39809141626412</v>
       </c>
       <c r="I8" t="n">
-        <v>50.43621816921992</v>
+        <v>50.43621816921984</v>
       </c>
       <c r="J8" t="n">
-        <v>111.0358853988672</v>
+        <v>111.0358853988671</v>
       </c>
       <c r="K8" t="n">
-        <v>166.4140091289257</v>
+        <v>166.4140091289254</v>
       </c>
       <c r="L8" t="n">
-        <v>206.4512936577179</v>
+        <v>206.4512936577176</v>
       </c>
       <c r="M8" t="n">
-        <v>229.7168430998258</v>
+        <v>229.7168430998255</v>
       </c>
       <c r="N8" t="n">
-        <v>233.4339017827464</v>
+        <v>233.4339017827461</v>
       </c>
       <c r="O8" t="n">
-        <v>220.425014047316</v>
+        <v>220.4250140473157</v>
       </c>
       <c r="P8" t="n">
-        <v>188.1276497764486</v>
+        <v>188.1276497764483</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.2760302138991</v>
+        <v>141.2760302138989</v>
       </c>
       <c r="R8" t="n">
-        <v>82.17921249133676</v>
+        <v>82.17921249133663</v>
       </c>
       <c r="S8" t="n">
-        <v>29.81169370419815</v>
+        <v>29.8116937041981</v>
       </c>
       <c r="T8" t="n">
-        <v>5.726854160839377</v>
+        <v>5.726854160839368</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1046598133334437</v>
+        <v>0.1046598133334436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6999742114630031</v>
+        <v>0.699974211463002</v>
       </c>
       <c r="H9" t="n">
-        <v>6.760277252813741</v>
+        <v>6.76027725281373</v>
       </c>
       <c r="I9" t="n">
-        <v>24.09998929817796</v>
+        <v>24.09998929817792</v>
       </c>
       <c r="J9" t="n">
-        <v>66.13221267159891</v>
+        <v>66.13221267159881</v>
       </c>
       <c r="K9" t="n">
-        <v>113.0304848396201</v>
+        <v>113.0304848396199</v>
       </c>
       <c r="L9" t="n">
-        <v>151.9834356950701</v>
+        <v>151.9834356950698</v>
       </c>
       <c r="M9" t="n">
         <v>156.1285237704853</v>
@@ -31621,22 +31621,22 @@
         <v>156.5907342929114</v>
       </c>
       <c r="P9" t="n">
-        <v>133.6643737661238</v>
+        <v>133.6643737661236</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.35109408078615</v>
+        <v>89.35109408078601</v>
       </c>
       <c r="R9" t="n">
-        <v>43.45980235732577</v>
+        <v>43.4598023573257</v>
       </c>
       <c r="S9" t="n">
-        <v>13.00171397169218</v>
+        <v>13.00171397169215</v>
       </c>
       <c r="T9" t="n">
-        <v>2.821387282168858</v>
+        <v>2.821387282168853</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04605093496467128</v>
+        <v>0.0460509349646712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5868348652328599</v>
+        <v>0.5868348652328589</v>
       </c>
       <c r="H10" t="n">
-        <v>5.217495438161248</v>
+        <v>5.21749543816124</v>
       </c>
       <c r="I10" t="n">
-        <v>17.64772485627546</v>
+        <v>17.64772485627543</v>
       </c>
       <c r="J10" t="n">
-        <v>41.48922497196319</v>
+        <v>41.48922497196313</v>
       </c>
       <c r="K10" t="n">
-        <v>68.17954161523588</v>
+        <v>68.17954161523578</v>
       </c>
       <c r="L10" t="n">
-        <v>87.24633987289265</v>
+        <v>87.24633987289251</v>
       </c>
       <c r="M10" t="n">
-        <v>91.98903255645637</v>
+        <v>91.98903255645622</v>
       </c>
       <c r="N10" t="n">
-        <v>89.80173896786124</v>
+        <v>89.8017389678611</v>
       </c>
       <c r="O10" t="n">
-        <v>82.94644076945917</v>
+        <v>82.94644076945903</v>
       </c>
       <c r="P10" t="n">
-        <v>70.97500951870876</v>
+        <v>70.97500951870866</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.1394176696352</v>
+        <v>49.13941766963513</v>
       </c>
       <c r="R10" t="n">
-        <v>26.38622948583386</v>
+        <v>26.38622948583381</v>
       </c>
       <c r="S10" t="n">
-        <v>10.22693124228538</v>
+        <v>10.22693124228537</v>
       </c>
       <c r="T10" t="n">
-        <v>2.507385333267673</v>
+        <v>2.507385333267669</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03200917446724694</v>
+        <v>0.03200917446724689</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,10 +31849,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879669</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O12" t="n">
         <v>654.1164009578283</v>
@@ -32086,22 +32086,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>254.1392278303035</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>530.1489483592454</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32268,7 +32268,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>602.6701715750701</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32393,10 +32393,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32408,22 +32408,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32475,7 +32475,7 @@
         <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171643</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
         <v>810.867191086975</v>
@@ -32560,13 +32560,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,13 +32797,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,13 +33034,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,13 +33271,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33514,10 +33514,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>211.6584993001651</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,13 +33745,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33988,10 +33988,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>602.6701715750701</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34441,31 +34441,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>211.6584993001651</v>
+        <v>211.6584993001656</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34532,31 +34532,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="N2" t="n">
-        <v>6.598225711743296</v>
+        <v>4.708920055951604</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.708920055951603</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="N3" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743297</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.708920055951604</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.907190374096933</v>
       </c>
       <c r="P4" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>13.42905591519561</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="L8" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>13.994489848467</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.4290559151956</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13.42905591519587</v>
+        <v>13.42905591519562</v>
       </c>
       <c r="M9" t="n">
         <v>13.994489848467</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.42905591519561</v>
+        <v>13.994489848467</v>
       </c>
       <c r="L10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>13.994489848467</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>13.994489848467</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>13.994489848467</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13.42905591519561</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
         <v>671.8997542381569</v>
@@ -35497,10 +35497,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N12" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O12" t="n">
         <v>511.5201565133839</v>
@@ -35570,10 +35570,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M13" t="n">
         <v>432.4942538895098</v>
@@ -35585,7 +35585,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q13" t="n">
         <v>138.4502995641581</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
         <v>433.5251384721831</v>
@@ -35734,22 +35734,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>112.0051939082852</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>387.552703914801</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M16" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N16" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O16" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4502995641575</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>460.0739271306256</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193547</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36050,13 +36050,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36123,7 +36123,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169878</v>
@@ -36208,13 +36208,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36287,10 +36287,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895095</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K23" t="n">
         <v>433.5251384721831</v>
@@ -36445,13 +36445,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817346</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36615,10 +36615,10 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116866</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36849,7 +36849,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
         <v>332.5762668227516</v>
@@ -36919,13 +36919,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116857</v>
       </c>
       <c r="K32" t="n">
         <v>433.5251384721831</v>
@@ -37086,7 +37086,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
         <v>332.5762668227516</v>
@@ -37162,10 +37162,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>69.06225485572071</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817305</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116839</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
         <v>433.5251384721831</v>
@@ -37636,10 +37636,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0739271306256</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37803,7 +37803,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440229</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38019,28 +38019,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>69.06225485572071</v>
+        <v>69.06225485572118</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
